--- a/健康/OldYear/记录表2019.xlsx
+++ b/健康/OldYear/记录表2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00MyDocuments\MySelf\00健康报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\xmind\健康\OldYear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85911394-067A-4118-BF40-784FEBD6995D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6FDB7D-09FE-416D-84CB-993CE8E27DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="686" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -32,14 +32,7 @@
     <sheet name="预测201801" sheetId="12" r:id="rId17"/>
     <sheet name="预测2017" sheetId="32" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -915,6 +908,34 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,34 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1519,15 +1512,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="M1" s="12"/>
@@ -1537,12 +1530,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="21.75" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1554,12 +1547,12 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="53">
         <f>B4/(B3/100)^2</f>
         <v>23.281249999999996</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:13" ht="21.75" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -1571,20 +1564,20 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1">
       <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="47" t="str">
+      <c r="E5" s="56" t="str">
         <f>IF(E3&lt;18.5,"體重過輕",IF(E3&lt;24,"正常範圍",IF(E3&lt;27,"過重",IF(E3&lt;30,"輕度肥胖",IF(E3&lt;35,"中度肥胖","重度肥胖")))))</f>
         <v>正常範圍</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="21.75" customHeight="1">
       <c r="A6" s="7"/>
@@ -1607,12 +1600,12 @@
     <row r="7" spans="1:13" ht="25.5" customHeight="1"/>
     <row r="8" spans="1:13" ht="19.7" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:13" ht="19.7" customHeight="1">
       <c r="A9" s="1" t="s">
@@ -1621,67 +1614,72 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="19.7" customHeight="1">
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="19.7" customHeight="1">
       <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D13" s="58"/>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D14" s="58"/>
-      <c r="E14" s="54" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:13" ht="19.7" customHeight="1">
-      <c r="D15" s="59"/>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
     </row>
   </sheetData>
   <sheetProtection password="EB07" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="D12:D15"/>
@@ -1690,11 +1688,6 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1709,7 +1702,7 @@
   <dimension ref="A1:HM19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -3656,8 +3649,8 @@
         <v>-0.40499999999999936</v>
       </c>
       <c r="F19" s="17">
-        <f>AVERAGE(F13:F16)</f>
-        <v>-1343.5</v>
+        <f>AVERAGE(F13:F16)/7</f>
+        <v>-191.92857142857142</v>
       </c>
       <c r="G19" s="17">
         <f>AVERAGE(G13:G16)</f>
@@ -3679,7 +3672,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3693,7 +3686,7 @@
   <dimension ref="A1:HM20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -5844,8 +5837,8 @@
         <v>9.2499999999999361E-2</v>
       </c>
       <c r="F20" s="17">
-        <f>AVERAGE(F13:F16)</f>
-        <v>5.75</v>
+        <f>AVERAGE(F13:F17)/7</f>
+        <v>7.2857142857142856</v>
       </c>
       <c r="G20" s="17">
         <f>AVERAGE(G13:G16)</f>
@@ -5867,7 +5860,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5881,7 +5874,7 @@
   <dimension ref="A1:HM19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -7827,8 +7820,8 @@
         <v>0.14999999999999858</v>
       </c>
       <c r="F19" s="17">
-        <f>AVERAGE(F13:F16)</f>
-        <v>1946.5</v>
+        <f>AVERAGE(F13:F16)/7</f>
+        <v>278.07142857142856</v>
       </c>
       <c r="G19" s="17">
         <f>AVERAGE(G13:G16)</f>
@@ -7850,7 +7843,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7863,8 +7856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:HM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -10017,8 +10010,8 @@
         <v>-0.15399999999999919</v>
       </c>
       <c r="F20" s="17">
-        <f>AVERAGE(F13:F17)</f>
-        <v>118.8</v>
+        <f>AVERAGE(F13:F17)/7</f>
+        <v>16.971428571428572</v>
       </c>
       <c r="G20" s="17">
         <f>AVERAGE(G13:G17)</f>
@@ -10040,7 +10033,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18082,7 +18075,7 @@
   <dimension ref="A1:HM19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75"/>
@@ -20016,7 +20009,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21861,7 +21854,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21874,7 +21867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:HM20"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AJ4"/>
     </sheetView>
   </sheetViews>
@@ -23905,7 +23898,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="AC10:AJ10 B8:IV8">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25722,7 +25715,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27742,7 +27735,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29725,7 +29718,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31804,7 +31797,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31817,7 +31810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:HM24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -33763,8 +33756,8 @@
         <v>-0.17999999999999972</v>
       </c>
       <c r="F19" s="17">
-        <f>AVERAGE(F13:F16)</f>
-        <v>1866.5</v>
+        <f>AVERAGE(F13:F16)/7</f>
+        <v>266.64285714285717</v>
       </c>
       <c r="G19" s="17">
         <f>AVERAGE(G13:G16)</f>
@@ -33800,7 +33793,7 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B8:IV8">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
